--- a/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{834A9FC7-9D69-4E45-943F-242E38CCC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D452B9F4-DCBE-4AC7-8DE9-8951D2F64C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DEB3D84-C70F-4D39-8556-5CE67200D809}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{679E10F9-267B-4281-9A09-9C9E31F3940D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>41,27%</t>
   </si>
   <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>35,83%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>58,73%</t>
   </si>
   <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>64,17%</t>
   </si>
   <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>26,92%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,10 +251,10 @@
     <t>24,86%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>12,98%</t>
@@ -263,31 +263,31 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>18,58%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>81,12%</t>
+    <t>81,42%</t>
   </si>
   <si>
     <t>91,27%</t>
@@ -296,10 +296,10 @@
     <t>78,75%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>25,1%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,25 +368,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,35%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>7,28%</t>
+    <t>8,4%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>90,81%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -395,67 +395,67 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>92,72%</t>
+    <t>91,6%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>94,62%</t>
+    <t>94,68%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3193E94A-EEC9-473A-AF16-D61CF1625ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA66A79-3557-4B10-A100-374A38A41823}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1486,7 @@
         <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>129712</v>
+        <v>129713</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1588,7 +1588,7 @@
         <v>575</v>
       </c>
       <c r="N15" s="7">
-        <v>610272</v>
+        <v>610273</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D452B9F4-DCBE-4AC7-8DE9-8951D2F64C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B8670D-EF52-4AC0-A6CF-DE63CB80B5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{679E10F9-267B-4281-9A09-9C9E31F3940D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1A7C703-CA87-4101-A303-9444A3A7275A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si tiene algún compañero de trabajo que fume habitualmente de manera que le llgue el humo en 2007 (Tasa respuesta: 46,43%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>41,27%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>35,83%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>58,73%</t>
   </si>
   <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>64,17%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>26,92%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,49 @@
     <t>24,86%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>17,91%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>82,09%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>25,1%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,25 +362,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,19%</t>
+    <t>9,3%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>6,1%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>90,81%</t>
+    <t>90,7%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -395,67 +389,67 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>92,03%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>94,68%</t>
+    <t>93,9%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA66A79-3557-4B10-A100-374A38A41823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6032C0A2-AC19-434D-BA35-1A4413937EA2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,7 +1489,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1504,13 @@
         <v>319451</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -1525,13 +1519,13 @@
         <v>161109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -1540,13 +1534,13 @@
         <v>480560</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1608,13 @@
         <v>40584</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1629,13 +1623,13 @@
         <v>11433</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -1644,13 +1638,13 @@
         <v>52017</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1659,13 @@
         <v>121112</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -1680,13 +1674,13 @@
         <v>83244</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -1695,13 +1689,13 @@
         <v>204356</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1763,13 @@
         <v>769</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1784,13 +1778,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1799,13 +1793,13 @@
         <v>1843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>42366</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -1835,13 +1829,13 @@
         <v>68885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -1850,13 +1844,13 @@
         <v>111251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1918,13 @@
         <v>542235</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
@@ -1939,13 +1933,13 @@
         <v>225358</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>738</v>
@@ -1954,13 +1948,13 @@
         <v>767593</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1969,13 @@
         <v>1388581</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>957</v>
@@ -1990,13 +1984,13 @@
         <v>998962</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>2285</v>
@@ -2005,13 +1999,13 @@
         <v>2387542</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B8670D-EF52-4AC0-A6CF-DE63CB80B5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA4C783-CD3A-4BEC-80C7-71552F1B6363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1A7C703-CA87-4101-A303-9444A3A7275A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C41C79E7-96BB-4A91-9929-5C1FE3C85C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población según si tiene algún compañero de trabajo que fume habitualmente de manera que le llgue el humo en 2007 (Tasa respuesta: 46,43%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>41,27%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>35,83%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>58,73%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>64,17%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>26,92%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,49 +251,55 @@
     <t>24,86%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>17,91%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>82,09%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +308,55 @@
     <t>25,1%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,25 +368,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,3%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>7,97%</t>
+    <t>7,28%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>90,7%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -389,67 +395,67 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>92,03%</t>
+    <t>92,72%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>93,9%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6032C0A2-AC19-434D-BA35-1A4413937EA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5371D37D-07AD-4577-8EE4-C2E928C223F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1480,7 +1486,7 @@
         <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>129713</v>
+        <v>129712</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1489,7 +1495,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1510,13 @@
         <v>319451</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -1519,13 +1525,13 @@
         <v>161109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -1534,13 +1540,13 @@
         <v>480560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,7 +1588,7 @@
         <v>575</v>
       </c>
       <c r="N15" s="7">
-        <v>610273</v>
+        <v>610272</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1614,13 @@
         <v>40584</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1623,13 +1629,13 @@
         <v>11433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -1638,13 +1644,13 @@
         <v>52017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>121112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -1674,13 +1680,13 @@
         <v>83244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -1689,13 +1695,13 @@
         <v>204356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1769,13 @@
         <v>769</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1778,13 +1784,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1793,13 +1799,13 @@
         <v>1843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1820,13 @@
         <v>42366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -1829,13 +1835,13 @@
         <v>68885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -1844,13 +1850,13 @@
         <v>111251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1924,13 @@
         <v>542235</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
@@ -1933,13 +1939,13 @@
         <v>225358</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>738</v>
@@ -1948,13 +1954,13 @@
         <v>767593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1975,13 @@
         <v>1388581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>957</v>
@@ -1984,13 +1990,13 @@
         <v>998962</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>2285</v>
@@ -1999,13 +2005,13 @@
         <v>2387542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA4C783-CD3A-4BEC-80C7-71552F1B6363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA6D858-E7E5-4773-BDAF-91998C2C917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C41C79E7-96BB-4A91-9929-5C1FE3C85C1F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B9DBBC2-F2CF-4579-A149-052F8C80F80A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="149">
   <si>
     <t>Población según si tiene algún compañero de trabajo que fume habitualmente de manera que le llgue el humo en 2007 (Tasa respuesta: 46,43%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>29,65%</t>
@@ -188,7 +188,7 @@
     <t>77,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>26,92%</t>
@@ -245,7 +245,7 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>24,86%</t>
@@ -302,7 +302,7 @@
     <t>82,16%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>25,1%</t>
@@ -359,49 +359,73 @@
     <t>84,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>28,08%</t>
@@ -870,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5371D37D-07AD-4577-8EE4-C2E928C223F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79482175-49FF-469E-85C1-7CC14256A378}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1486,7 +1510,7 @@
         <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>129712</v>
+        <v>129713</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1588,7 +1612,7 @@
         <v>575</v>
       </c>
       <c r="N15" s="7">
-        <v>610272</v>
+        <v>610273</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1778,25 +1802,25 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1843</v>
+        <v>769</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1814,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>42366</v>
+        <v>28811</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -1829,31 +1853,31 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>68885</v>
+        <v>33610</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="7">
+        <v>63</v>
+      </c>
+      <c r="N20" s="7">
+        <v>62421</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>107</v>
-      </c>
-      <c r="N20" s="7">
-        <v>111251</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -1865,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7">
-        <v>43135</v>
+        <v>29580</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1880,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I21" s="7">
-        <v>69959</v>
+        <v>33610</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1895,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>113094</v>
+        <v>63190</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1912,55 +1936,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>542235</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1074</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1074</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="7">
-        <v>218</v>
-      </c>
-      <c r="I22" s="7">
-        <v>225358</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="7">
-        <v>738</v>
-      </c>
-      <c r="N22" s="7">
-        <v>767593</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,49 +1993,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1328</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>1388581</v>
+        <v>13555</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>957</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>998962</v>
+        <v>35275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
-        <v>2285</v>
+        <v>44</v>
       </c>
       <c r="N23" s="7">
-        <v>2387542</v>
+        <v>48830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,63 +2044,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13555</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36349</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>45</v>
+      </c>
+      <c r="N24" s="7">
+        <v>49904</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>520</v>
+      </c>
+      <c r="D25" s="7">
+        <v>542235</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="7">
+        <v>218</v>
+      </c>
+      <c r="I25" s="7">
+        <v>225358</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="7">
+        <v>738</v>
+      </c>
+      <c r="N25" s="7">
+        <v>767593</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1328</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1388581</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="7">
+        <v>957</v>
+      </c>
+      <c r="I26" s="7">
+        <v>998962</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2285</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2387542</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1848</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1930816</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1175</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1224320</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3023</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3155135</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
